--- a/ajudatcc/abun.xlsx
+++ b/ajudatcc/abun.xlsx
@@ -23,28 +23,28 @@
     <t>qnt</t>
   </si>
   <si>
+    <t>Beridinae</t>
+  </si>
+  <si>
+    <t>Chiromyzinae</t>
+  </si>
+  <si>
+    <t>Chrysochlorininae</t>
+  </si>
+  <si>
+    <t>Clitellariinae</t>
+  </si>
+  <si>
+    <t>Hermetiinae</t>
+  </si>
+  <si>
     <t>Pachygastrinae</t>
   </si>
   <si>
     <t>Sarginae</t>
   </si>
   <si>
-    <t>Clitellariinae</t>
-  </si>
-  <si>
-    <t>Hermetiinae</t>
-  </si>
-  <si>
-    <t>Beridinae</t>
-  </si>
-  <si>
-    <t>Chiromyzinae</t>
-  </si>
-  <si>
     <t>Stratiomyinae</t>
-  </si>
-  <si>
-    <t>Chrysochlorininae</t>
   </si>
 </sst>
 </file>
@@ -52,13 +52,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -103,24 +109,24 @@
   <cellXfs count="8">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -443,68 +449,68 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="7">
-        <v>121</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+        <v>23</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="7">
-        <v>206</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+        <v>374</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="7">
-        <v>39</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+        <v>17</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="7">
-        <v>31</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+        <v>39</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="7">
-        <v>23</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+        <v>31</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="7">
-        <v>374</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+        <v>121</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+        <v>206</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="7">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -540,7 +546,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="4">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
@@ -548,7 +554,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="4">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
@@ -556,7 +562,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="4">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
@@ -564,7 +570,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="4">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
@@ -572,7 +578,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
@@ -580,7 +586,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="4">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
@@ -588,7 +594,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="4">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
